--- a/analysis/metadata/P19_1/P19_1_minimal_metadata.xlsx
+++ b/analysis/metadata/P19_1/P19_1_minimal_metadata.xlsx
@@ -473,7 +473,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>01/08/2011 00:00</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -546,7 +546,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>01/08/2011 00:00</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -619,7 +619,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>01/08/2011 00:00</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -692,7 +692,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>01/08/2011 00:00</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -765,7 +765,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>01/08/2011 00:00</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">

--- a/analysis/metadata/P19_1/P19_1_minimal_metadata.xlsx
+++ b/analysis/metadata/P19_1/P19_1_minimal_metadata.xlsx
@@ -473,7 +473,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>01/08/2011 00:00</t>
+          <t>2011-08-01</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -546,7 +546,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>01/08/2011 00:00</t>
+          <t>2011-08-01</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -619,7 +619,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>01/08/2011 00:00</t>
+          <t>2011-08-01</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -692,7 +692,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>01/08/2011 00:00</t>
+          <t>2011-08-01</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -765,7 +765,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>01/08/2011 00:00</t>
+          <t>2011-08-01</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">

--- a/analysis/metadata/P19_1/P19_1_minimal_metadata.xlsx
+++ b/analysis/metadata/P19_1/P19_1_minimal_metadata.xlsx
@@ -496,6 +496,11 @@
           <t>Subterranean</t>
         </is>
       </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>2011-08-14</t>
+        </is>
+      </c>
       <c r="N2" t="inlineStr">
         <is>
           <t>Urban</t>
@@ -569,6 +574,11 @@
           <t>Subterranean</t>
         </is>
       </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>2011-08-14</t>
+        </is>
+      </c>
       <c r="N3" t="inlineStr">
         <is>
           <t>Urban</t>
@@ -642,6 +652,11 @@
           <t>Subterranean</t>
         </is>
       </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>2011-08-14</t>
+        </is>
+      </c>
       <c r="N4" t="inlineStr">
         <is>
           <t>Urban</t>
@@ -715,6 +730,11 @@
           <t>Subterranean</t>
         </is>
       </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>2011-08-14</t>
+        </is>
+      </c>
       <c r="N5" t="inlineStr">
         <is>
           <t>Urban</t>
@@ -786,6 +806,11 @@
       <c r="L6" t="inlineStr">
         <is>
           <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>2011-08-14</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">

--- a/analysis/metadata/P19_1/P19_1_minimal_metadata.xlsx
+++ b/analysis/metadata/P19_1/P19_1_minimal_metadata.xlsx
@@ -511,11 +511,6 @@
           <t>Archeological</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>Archeological</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -589,11 +584,6 @@
           <t>Archeological</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>Archeological</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -667,11 +657,6 @@
           <t>Archeological</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>Archeological</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -745,11 +730,6 @@
           <t>Archeological</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>Archeological</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -819,11 +799,6 @@
         </is>
       </c>
       <c r="O6" t="inlineStr">
-        <is>
-          <t>Archeological</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
         <is>
           <t>Archeological</t>
         </is>
